--- a/biology/Biologie cellulaire et moléculaire/Lyase/Lyase.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Lyase/Lyase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biochimie, une lyase est une enzyme qui catalyse la rupture de différentes liaisons chimiques par des moyens autres que l'hydrolyse ou l'oxydation, formant ainsi souvent une nouvelle liaison double ou un nouveau cycle. Par exemple une enzyme lyase catalyse la réaction de transformation de l'adénosine triphosphate (ATP) en adénosine monophosphate cyclique (AMPc) :
 ATP → AMPc + PPi
@@ -514,7 +526,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lyases sont classées EC 4 dans la nomenclature EC de classification des enzymes. Les lyases peuvent être ensuite classée dans sept différentes sous-catégories :
 EC 4.1 qui regroupe les lyases qui coupent les liaisons carbone-carbone: les décarboxylases (EC 4.1.1), les aldolases (EC 4.1.2), oxacide lyases (EC 4.1.3) et  les autres(EC 4.1.99)
